--- a/params_BC.xlsx
+++ b/params_BC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C7CC4D-24AA-4D28-B509-BC1E83E2D736}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E174B2D-2EBC-45E4-AE26-94B7CAE09DFA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
+    <workbookView xWindow="-25320" yWindow="435" windowWidth="25440" windowHeight="15390" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="153">
   <si>
     <t>val</t>
   </si>
@@ -171,9 +171,6 @@
     <t>Activation energy in other media</t>
   </si>
   <si>
-    <t>Y2</t>
-  </si>
-  <si>
     <t>m, diffusion length in immobile phase</t>
   </si>
   <si>
@@ -321,9 +318,6 @@
     <t>Calibrated to HRT</t>
   </si>
   <si>
-    <t>Y4</t>
-  </si>
-  <si>
     <t>kmw</t>
   </si>
   <si>
@@ -358,6 +352,144 @@
   </si>
   <si>
     <t>Placeholder, same as Ifw</t>
+  </si>
+  <si>
+    <t>BC_Depth_Curve</t>
+  </si>
+  <si>
+    <t>BC_Volume_Curve</t>
+  </si>
+  <si>
+    <t>0,0.0831035223026541,1.0627710716992,4.65730750197914,10.4155082554683,17.5850932537215,20.9764530863231,22.196163673915,22.4347725324083,22.5260271318681,22.5387871318681</t>
+  </si>
+  <si>
+    <t>BC volume curve to find ponding depth</t>
+  </si>
+  <si>
+    <t>0,0.0229999999999961,0.141999999999996,0.283999999999992,0.424999999999983,0.567000000000007,0.709000000000003,0.849999999999994,0.99199999999999,1.13399999999999,1.27599999999998</t>
+  </si>
+  <si>
+    <t>BC Ponding depths at the volumes above</t>
+  </si>
+  <si>
+    <t>5.74,12.74,33.18,76.31,140.09,166.45,175.47,176.74,177.25,177.34,177.34</t>
+  </si>
+  <si>
+    <t>BC_pArea_curve</t>
+  </si>
+  <si>
+    <t>Kf</t>
+  </si>
+  <si>
+    <t>Ks</t>
+  </si>
+  <si>
+    <t>Cs</t>
+  </si>
+  <si>
+    <t>Hw</t>
+  </si>
+  <si>
+    <t>Cq</t>
+  </si>
+  <si>
+    <t>Bw</t>
+  </si>
+  <si>
+    <t>Sfc</t>
+  </si>
+  <si>
+    <t>Field Capacity</t>
+  </si>
+  <si>
+    <t>Ss</t>
+  </si>
+  <si>
+    <t>Sh</t>
+  </si>
+  <si>
+    <t>Sw</t>
+  </si>
+  <si>
+    <t>Ew</t>
+  </si>
+  <si>
+    <t>Emax</t>
+  </si>
+  <si>
+    <t>hpipe</t>
+  </si>
+  <si>
+    <t>Height of drainage pipe, if submerged zone is present</t>
+  </si>
+  <si>
+    <t>Potential evapotranspiration , m/h</t>
+  </si>
+  <si>
+    <t>ET at wilting point m/h</t>
+  </si>
+  <si>
+    <t>Filter saturation at wilting point</t>
+  </si>
+  <si>
+    <t>Placeholder from Randelovic (2016)</t>
+  </si>
+  <si>
+    <t>Plant stress water content</t>
+  </si>
+  <si>
+    <t>Saturation at hygroscopic point</t>
+  </si>
+  <si>
+    <t>Weir height</t>
+  </si>
+  <si>
+    <t>Weir shape parameter (?)</t>
+  </si>
+  <si>
+    <t>Length of weir?</t>
+  </si>
+  <si>
+    <t>Exfiltration coefficient</t>
+  </si>
+  <si>
+    <t>Dpipe</t>
+  </si>
+  <si>
+    <t>Diameter of drainage pipe</t>
+  </si>
+  <si>
+    <t>Placeholder - 10X more than wilting point ET</t>
+  </si>
+  <si>
+    <t>For sandy soils from Lambers (2008) Ch. 3</t>
+  </si>
+  <si>
+    <t>Ymob_immob</t>
+  </si>
+  <si>
+    <t>Ytopsoil</t>
+  </si>
+  <si>
+    <t>WindSpeed</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>Infiltration rate of filter zone m/hr</t>
+  </si>
+  <si>
+    <t>Infiltration rate of submerged zone m/hr</t>
+  </si>
+  <si>
+    <t>Kn</t>
+  </si>
+  <si>
+    <t>Infiltration rate of native soil m/hr</t>
+  </si>
+  <si>
+    <t>Calibrated value</t>
   </si>
 </sst>
 </file>
@@ -710,19 +842,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD8B427-7822-4B11-BEA9-14D81D15628E}">
-  <dimension ref="A1:D48"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -736,18 +869,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -755,10 +888,10 @@
         <v>1515000</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -769,7 +902,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -780,7 +913,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -788,13 +921,13 @@
         <v>0.89</v>
       </c>
       <c r="C6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" t="s">
         <v>94</v>
       </c>
-      <c r="D6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -808,7 +941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -819,7 +952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -830,22 +963,22 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10">
         <f>0.1/24</f>
         <v>4.1666666666666666E-3</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -853,13 +986,13 @@
         <v>0.01</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -873,7 +1006,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -882,13 +1015,13 @@
         <v>0.9</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -902,7 +1035,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -913,7 +1046,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -924,7 +1057,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -935,7 +1068,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -946,7 +1079,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -960,7 +1093,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -974,7 +1107,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -988,7 +1121,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -1002,7 +1135,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1016,342 +1149,570 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24">
         <v>0.05</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B25">
         <v>0.1</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="B26" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
         <v>47</v>
       </c>
-      <c r="D26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="B27" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
         <v>47</v>
       </c>
-      <c r="D27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>54</v>
-      </c>
-      <c r="D28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>55</v>
       </c>
       <c r="B29">
         <v>0.2475</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" s="1">
         <v>0.19</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" s="1">
         <v>8.7000000000000001E-4</v>
       </c>
       <c r="C31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" t="s">
         <v>62</v>
       </c>
-      <c r="D31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="1">
         <v>8.05E-8</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="1">
         <v>2.31E-4</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B34" s="1">
         <f>0.1/24</f>
         <v>4.1666666666666666E-3</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35" s="1">
         <f>0.035/24</f>
         <v>1.4583333333333334E-3</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>68</v>
       </c>
       <c r="B36" s="1">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>70</v>
       </c>
       <c r="B37" s="1">
         <v>200000</v>
       </c>
       <c r="C37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>71</v>
-      </c>
-      <c r="D37" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>72</v>
       </c>
       <c r="B38" s="1">
         <v>1.5</v>
       </c>
       <c r="C38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>73</v>
-      </c>
-      <c r="D38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>74</v>
       </c>
       <c r="B39" s="1">
         <v>0.4</v>
       </c>
       <c r="C39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>76</v>
       </c>
-      <c r="D39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>77</v>
-      </c>
       <c r="B40" s="1">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B41" s="1">
         <v>0.05</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B42" s="1">
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B43" s="1">
         <v>0.03</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B44" s="1">
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D44" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B45" s="1">
         <v>4.6000000000000002E-8</v>
       </c>
       <c r="C45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D45" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B46" s="1">
         <v>1.0999999999999999E-8</v>
       </c>
       <c r="C46" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D46" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B47">
         <f>0.00001</f>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="C47" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B48">
         <v>0.2475</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D48" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>108</v>
+      </c>
+      <c r="B49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.33937499999999998</v>
+      </c>
+      <c r="C52" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" s="1">
+        <v>360</v>
+      </c>
+      <c r="C53" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>150</v>
+      </c>
+      <c r="B54" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56">
+        <v>0.15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57">
+        <v>1.3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58">
+        <v>0.5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59">
+        <v>0.37</v>
+      </c>
+      <c r="C59" t="s">
+        <v>122</v>
+      </c>
+      <c r="D59" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60">
+        <v>0.21</v>
+      </c>
+      <c r="C60" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61">
+        <v>0.05</v>
+      </c>
+      <c r="C61" t="s">
+        <v>135</v>
+      </c>
+      <c r="D61" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62">
+        <v>0.05</v>
+      </c>
+      <c r="C62" t="s">
+        <v>132</v>
+      </c>
+      <c r="D62" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>131</v>
+      </c>
+      <c r="D63" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" s="1">
+        <f>10*B63</f>
+        <v>0.01</v>
+      </c>
+      <c r="C64" t="s">
+        <v>130</v>
+      </c>
+      <c r="D64" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65">
+        <v>0.01</v>
+      </c>
+      <c r="C65" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>140</v>
+      </c>
+      <c r="B66">
+        <v>0.1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>146</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/params_BC.xlsx
+++ b/params_BC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E174B2D-2EBC-45E4-AE26-94B7CAE09DFA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D02B45-A7B0-46A0-BA1C-4C7E4D0A5330}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="435" windowWidth="25440" windowHeight="15390" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="158">
   <si>
     <t>val</t>
   </si>
@@ -144,9 +144,6 @@
     <t>VFrootxylem</t>
   </si>
   <si>
-    <t>VFrootcylinder</t>
-  </si>
-  <si>
     <t>Free area in roots</t>
   </si>
   <si>
@@ -315,9 +312,6 @@
     <t>mobile water fraction, Gao 2010 said 0.69</t>
   </si>
   <si>
-    <t>Calibrated to HRT</t>
-  </si>
-  <si>
     <t>kmw</t>
   </si>
   <si>
@@ -459,9 +453,6 @@
     <t>Diameter of drainage pipe</t>
   </si>
   <si>
-    <t>Placeholder - 10X more than wilting point ET</t>
-  </si>
-  <si>
     <t>For sandy soils from Lambers (2008) Ch. 3</t>
   </si>
   <si>
@@ -490,6 +481,30 @@
   </si>
   <si>
     <t>Calibrated value</t>
+  </si>
+  <si>
+    <t>AF_soil</t>
+  </si>
+  <si>
+    <t>Area of soil/water interface per m³ of porous media</t>
+  </si>
+  <si>
+    <t>Carman (1938), range of 150 - 220 (/cm) for sand</t>
+  </si>
+  <si>
+    <t>VFrootcyl</t>
+  </si>
+  <si>
+    <t>Pulse</t>
+  </si>
+  <si>
+    <t>Pulse injection, True for pulse, False for continuous</t>
+  </si>
+  <si>
+    <t>Observed HRT/Theoretical HRT</t>
+  </si>
+  <si>
+    <t>Sylvie - word of gospel</t>
   </si>
 </sst>
 </file>
@@ -525,9 +540,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -843,9 +859,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD8B427-7822-4B11-BEA9-14D81D15628E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
@@ -888,7 +904,7 @@
         <v>1515000</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -899,7 +915,7 @@
         <v>10000</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -910,21 +926,21 @@
         <v>80000</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>0.89</v>
+      <c r="B6" s="2">
+        <v>0.39390942851649902</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -960,19 +976,19 @@
         <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <f>0.1/24</f>
         <v>4.1666666666666666E-3</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -986,7 +1002,7 @@
         <v>0.01</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -1015,7 +1031,7 @@
         <v>0.9</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -1101,7 +1117,7 @@
         <v>0.72</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
@@ -1115,7 +1131,7 @@
         <v>2.3300000000000001E-2</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
         <v>16</v>
@@ -1123,13 +1139,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="B22">
         <v>5.67E-2</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
         <v>16</v>
@@ -1137,13 +1153,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23">
         <v>0.2</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
         <v>16</v>
@@ -1151,13 +1167,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24">
         <v>0.05</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D24" t="s">
         <v>16</v>
@@ -1165,554 +1181,579 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B25">
         <v>0.1</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B26" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
         <v>46</v>
-      </c>
-      <c r="D26" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B27" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" t="s">
         <v>46</v>
-      </c>
-      <c r="D27" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29">
         <v>0.2475</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" s="1">
         <v>0.19</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" s="1">
         <v>8.7000000000000001E-4</v>
       </c>
       <c r="C31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" t="s">
         <v>61</v>
-      </c>
-      <c r="D31" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" s="1">
         <v>8.05E-8</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33" s="1">
         <v>2.31E-4</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34" s="1">
         <f>0.1/24</f>
         <v>4.1666666666666666E-3</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35" s="1">
         <f>0.035/24</f>
         <v>1.4583333333333334E-3</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B36" s="1">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B37" s="1">
         <v>200000</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B38" s="1">
         <v>1.5</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B39" s="1">
         <v>0.4</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B40" s="1">
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B41" s="1">
         <v>0.05</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B42" s="1">
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B43" s="1">
         <v>0.03</v>
       </c>
       <c r="C43" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B44" s="1">
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B45" s="1">
         <v>4.6000000000000002E-8</v>
       </c>
       <c r="C45" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B46" s="1">
         <v>1.0999999999999999E-8</v>
       </c>
       <c r="C46" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B47">
         <f>0.00001</f>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="C47" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B48">
         <v>0.2475</v>
       </c>
       <c r="C48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D48" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" t="s">
         <v>108</v>
-      </c>
-      <c r="B49" t="s">
-        <v>109</v>
-      </c>
-      <c r="C49" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B52" s="1">
-        <v>0.33937499999999998</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C52" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D52" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B53" s="1">
         <v>360</v>
       </c>
       <c r="C53" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B54" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C54" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B55" s="1">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="C55" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B56">
         <v>0.15</v>
       </c>
       <c r="C56" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B57">
         <v>1.3</v>
       </c>
       <c r="C57" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B58">
         <v>0.5</v>
       </c>
       <c r="C58" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B59">
         <v>0.37</v>
       </c>
       <c r="C59" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D59" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B60">
         <v>0.21</v>
       </c>
       <c r="C60" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D60" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B61">
         <v>0.05</v>
       </c>
       <c r="C61" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D61" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B62">
         <v>0.05</v>
       </c>
       <c r="C62" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D62" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B63" s="1">
-        <v>1E-3</v>
+        <f>B64/10</f>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="C63" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63" t="s">
         <v>131</v>
-      </c>
-      <c r="D63" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B64" s="1">
-        <f>10*B63</f>
-        <v>0.01</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C64" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D64" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B65">
         <v>0.01</v>
       </c>
       <c r="C65" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B66">
         <v>0.1</v>
       </c>
       <c r="C66" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>147</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>150</v>
+      </c>
+      <c r="B68" s="1">
+        <v>12000</v>
+      </c>
+      <c r="C68" t="s">
+        <v>151</v>
+      </c>
+      <c r="D68" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>154</v>
+      </c>
+      <c r="B69" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
